--- a/upload/excel/example.xlsx
+++ b/upload/excel/example.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="AvitoAutoAdd_tires" sheetId="1" r:id="rId4"/>
+    <sheet name="Текст авито" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="1"/>
@@ -15,69 +15,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
   <si>
     <t>Код</t>
   </si>
   <si>
-    <t>Заголовок авито шины 19082015</t>
-  </si>
-  <si>
-    <t>текст авито шины 19082015</t>
-  </si>
-  <si>
-    <t>Цена Шины</t>
-  </si>
-  <si>
-    <t>Посадочный диаметр</t>
-  </si>
-  <si>
-    <t>Сезонность шин Авито</t>
-  </si>
-  <si>
-    <t>Ширина шины</t>
-  </si>
-  <si>
-    <t>Профиль шины</t>
-  </si>
-  <si>
-    <t>Авито проверка шины</t>
-  </si>
-  <si>
-    <t>Авито пустой столбец шин 1</t>
-  </si>
-  <si>
-    <t>Авито пустой столбец шин 2</t>
-  </si>
-  <si>
-    <t>Авито код города шины</t>
-  </si>
-  <si>
-    <t>Авито логин Шины</t>
-  </si>
-  <si>
-    <t>Авито пароль шины</t>
-  </si>
-  <si>
-    <t>1034-1</t>
-  </si>
-  <si>
-    <t>Новое поступление из Японии, Шины 235/55/19 Dunlop Grandtrek Touring A/S</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Продам летние шины 2шт. Dunlop Grandtrek Touring A/S, 235/55/19 101V, 2шт. год:  2008, страна производитель Japan, остатки протектора в мм. 3.9/4.1. Товар Б/у. 
-Без грыж и порезов. Предоставлю дополнительные фотографии. Возможна отправка в регионы.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4500
-</t>
-  </si>
-  <si>
-    <t>kolesotomskru@mail.ru</t>
-  </si>
-  <si>
-    <t>czfGHER44</t>
+    <t>Заголовок</t>
+  </si>
+  <si>
+    <t>Текст объявления</t>
+  </si>
+  <si>
+    <t>18" Enkei 5/114.3 Б/у</t>
+  </si>
+  <si>
+    <t>18" Enkei 5/114.3 Б/у
+Поставка 8 - 11 дней после полной оплаты в нашем представительстве в г. Ростов-на-дону.
+Диски не гнутые, состояние на фото.
+Разумный торг</t>
+  </si>
+  <si>
+    <t>20" BMW 5/120 б/у</t>
+  </si>
+  <si>
+    <t>20" BMW 5/120 Б/у
+Поставка 8 - 11 дней после полной оплаты в нашем представительстве в г. Ростов-на-дону.
+Диски не гнутые, состояние на фото.
+Хороший торг</t>
+  </si>
+  <si>
+    <t>18" Prado 6/139.7 б/у</t>
+  </si>
+  <si>
+    <t>18" Prado 6/139.7 б/у
+Поставка 8 - 11 дней после полной оплаты в нашем представительстве в г. Ростов-на-дону.
+Диски не гнутые, состояние на фото.
+Хороший торг</t>
   </si>
 </sst>
 </file>
@@ -420,28 +393,28 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:Y2"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="8.140869" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="85.979004" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="189.810791" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="11.711426" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="22.280273" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="24.708252" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="13.996582" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="15.281982" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="23.422852" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="31.706543" bestFit="true" customWidth="true" style="0"/>
-    <col min="11" max="11" width="31.706543" bestFit="true" customWidth="true" style="0"/>
-    <col min="12" max="12" width="25.85083" bestFit="true" customWidth="true" style="0"/>
-    <col min="13" max="13" width="25.85083" bestFit="true" customWidth="true" style="0"/>
-    <col min="14" max="14" width="21.137695" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="5.855713" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="25.85083" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="19.995117" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="103.688965" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="9.10" bestFit="true" style="0"/>
+    <col min="6" max="6" width="9.10" bestFit="true" style="0"/>
+    <col min="7" max="7" width="9.10" bestFit="true" style="0"/>
+    <col min="8" max="8" width="9.10" bestFit="true" style="0"/>
+    <col min="9" max="9" width="9.10" bestFit="true" style="0"/>
+    <col min="10" max="10" width="9.10" bestFit="true" style="0"/>
+    <col min="11" max="11" width="9.10" bestFit="true" style="0"/>
+    <col min="12" max="12" width="9.10" bestFit="true" style="0"/>
+    <col min="13" max="13" width="9.10" bestFit="true" style="0"/>
+    <col min="14" max="14" width="9.10" bestFit="true" style="0"/>
     <col min="15" max="15" width="9.10" bestFit="true" style="0"/>
     <col min="16" max="16" width="9.10" bestFit="true" style="0"/>
     <col min="17" max="17" width="9.10" bestFit="true" style="0"/>
@@ -466,81 +439,49 @@
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:25">
-      <c r="A2" s="1" t="s">
-        <v>14</v>
+      <c r="A2" s="1">
+        <v>1059</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>16</v>
+        <v>3</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="1">
-        <v>19</v>
-      </c>
-      <c r="F2" s="1">
         <v>4</v>
       </c>
-      <c r="G2" s="1">
-        <v>235</v>
-      </c>
-      <c r="H2" s="1">
-        <v>55</v>
-      </c>
-      <c r="I2" s="1">
+    </row>
+    <row r="3" spans="1:25">
+      <c r="A3" s="1">
+        <v>3001</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="1">
         <v>0</v>
       </c>
-      <c r="J2" s="1">
-        <v>657600</v>
-      </c>
-      <c r="K2" s="1">
-        <v>657600</v>
-      </c>
-      <c r="L2" s="1">
-        <v>657600</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>19</v>
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25">
+      <c r="A4" s="1">
+        <v>3014</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/upload/excel/example.xlsx
+++ b/upload/excel/example.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Текст авито" sheetId="1" r:id="rId4"/>
+    <sheet name="Пользователи дрома" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" calcMode="auto" fullCalcOnLoad="1"/>
@@ -15,42 +15,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1">
   <si>
-    <t>Код</t>
-  </si>
-  <si>
-    <t>Заголовок</t>
-  </si>
-  <si>
-    <t>Текст объявления</t>
-  </si>
-  <si>
-    <t>18" Enkei 5/114.3 Б/у</t>
-  </si>
-  <si>
-    <t>18" Enkei 5/114.3 Б/у
-Поставка 8 - 11 дней после полной оплаты в нашем представительстве в г. Ростов-на-дону.
-Диски не гнутые, состояние на фото.
-Разумный торг</t>
-  </si>
-  <si>
-    <t>20" BMW 5/120 б/у</t>
-  </si>
-  <si>
-    <t>20" BMW 5/120 Б/у
-Поставка 8 - 11 дней после полной оплаты в нашем представительстве в г. Ростов-на-дону.
-Диски не гнутые, состояние на фото.
-Хороший торг</t>
-  </si>
-  <si>
-    <t>18" Prado 6/139.7 б/у</t>
-  </si>
-  <si>
-    <t>18" Prado 6/139.7 б/у
-Поставка 8 - 11 дней после полной оплаты в нашем представительстве в г. Ростов-на-дону.
-Диски не гнутые, состояние на фото.
-Хороший торг</t>
+    <t>asd</t>
   </si>
 </sst>
 </file>
@@ -393,18 +360,18 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:Y4"/>
+  <dimension ref="A1:Y1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="5.855713" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="25.85083" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="19.995117" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="103.688965" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="4.570313" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="9.10" bestFit="true" style="0"/>
+    <col min="3" max="3" width="9.10" bestFit="true" style="0"/>
+    <col min="4" max="4" width="9.10" bestFit="true" style="0"/>
     <col min="5" max="5" width="9.10" bestFit="true" style="0"/>
     <col min="6" max="6" width="9.10" bestFit="true" style="0"/>
     <col min="7" max="7" width="9.10" bestFit="true" style="0"/>
@@ -432,57 +399,6 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25">
-      <c r="A2" s="1">
-        <v>1059</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25">
-      <c r="A3" s="1">
-        <v>3001</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25">
-      <c r="A4" s="1">
-        <v>3014</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/upload/excel/example.xlsx
+++ b/upload/excel/example.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
   <si>
     <t>Код</t>
   </si>
@@ -26,31 +26,13 @@
     <t>Текст объявления</t>
   </si>
   <si>
-    <t>18" Enkei 5/114.3 Б/у</t>
+    <t xml:space="preserve"> Шины </t>
   </si>
   <si>
-    <t>18" Enkei 5/114.3 Б/у
-Поставка 8 - 11 дней после полной оплаты в нашем представительстве в г. Ростов-на-дону.
-Диски не гнутые, состояние на фото.
-Разумный торг</t>
+    <t xml:space="preserve"> Пара </t>
   </si>
   <si>
-    <t>20" BMW 5/120 б/у</t>
-  </si>
-  <si>
-    <t>20" BMW 5/120 Б/у
-Поставка 8 - 11 дней после полной оплаты в нашем представительстве в г. Ростов-на-дону.
-Диски не гнутые, состояние на фото.
-Хороший торг</t>
-  </si>
-  <si>
-    <t>18" Prado 6/139.7 б/у</t>
-  </si>
-  <si>
-    <t>18" Prado 6/139.7 б/у
-Поставка 8 - 11 дней после полной оплаты в нашем представительстве в г. Ростов-на-дону.
-Диски не гнутые, состояние на фото.
-Хороший торг</t>
+    <t xml:space="preserve"> Шина </t>
   </si>
 </sst>
 </file>
@@ -393,18 +375,18 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:Y4"/>
+  <dimension ref="A1:Y262"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C262" sqref="C262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="5.855713" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="25.85083" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="11.711426" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="19.995117" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="103.688965" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="9.10" bestFit="true" style="0"/>
     <col min="5" max="5" width="9.10" bestFit="true" style="0"/>
     <col min="6" max="6" width="9.10" bestFit="true" style="0"/>
     <col min="7" max="7" width="9.10" bestFit="true" style="0"/>
@@ -438,51 +420,2355 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
     </row>
     <row r="2" spans="1:25">
       <c r="A2" s="1">
-        <v>1059</v>
+        <v>8807</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="1">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>4</v>
-      </c>
+      <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:25">
       <c r="A3" s="1">
-        <v>3001</v>
+        <v>7453</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>6</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:25">
       <c r="A4" s="1">
+        <v>8122</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:25">
+      <c r="A5" s="1">
+        <v>3086</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:25">
+      <c r="A6" s="1">
+        <v>3008</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:25">
+      <c r="A7" s="1">
+        <v>3106</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:25">
+      <c r="A8" s="1">
+        <v>1109</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:25">
+      <c r="A9" s="1">
+        <v>1108</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:25">
+      <c r="A10" s="1">
+        <v>1107</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:25">
+      <c r="A11" s="1">
+        <v>1105</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1"/>
+    </row>
+    <row r="12" spans="1:25">
+      <c r="A12" s="1">
+        <v>7450</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:25">
+      <c r="A13" s="1">
+        <v>5555</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:25">
+      <c r="A14" s="1">
+        <v>3401</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:25">
+      <c r="A15" s="1">
+        <v>3400</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:25">
+      <c r="A16" s="1">
+        <v>1103</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" s="1"/>
+    </row>
+    <row r="17" spans="1:25">
+      <c r="A17" s="1">
+        <v>8455</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="1"/>
+    </row>
+    <row r="18" spans="1:25">
+      <c r="A18" s="1">
+        <v>8451</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="1"/>
+    </row>
+    <row r="19" spans="1:25">
+      <c r="A19" s="1">
+        <v>8449</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="1:25">
+      <c r="A20" s="1">
+        <v>3169</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="1:25">
+      <c r="A21" s="1">
+        <v>9916</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" s="1"/>
+    </row>
+    <row r="22" spans="1:25">
+      <c r="A22" s="1">
+        <v>8468</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="1"/>
+    </row>
+    <row r="23" spans="1:25">
+      <c r="A23" s="1">
+        <v>8466</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C23" s="1"/>
+    </row>
+    <row r="24" spans="1:25">
+      <c r="A24" s="1">
+        <v>8464</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" s="1"/>
+    </row>
+    <row r="25" spans="1:25">
+      <c r="A25" s="1">
+        <v>8463</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:25">
+      <c r="A26" s="1">
+        <v>8461</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" s="1"/>
+    </row>
+    <row r="27" spans="1:25">
+      <c r="A27" s="1">
+        <v>8460</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="1"/>
+    </row>
+    <row r="28" spans="1:25">
+      <c r="A28" s="1">
+        <v>8459</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" s="1"/>
+    </row>
+    <row r="29" spans="1:25">
+      <c r="A29" s="1">
+        <v>8453</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" s="1"/>
+    </row>
+    <row r="30" spans="1:25">
+      <c r="A30" s="1">
+        <v>8409</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" s="1"/>
+    </row>
+    <row r="31" spans="1:25">
+      <c r="A31" s="1">
+        <v>7452</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="1"/>
+    </row>
+    <row r="32" spans="1:25">
+      <c r="A32" s="1">
+        <v>7451</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="1"/>
+    </row>
+    <row r="33" spans="1:25">
+      <c r="A33" s="1">
+        <v>7449</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="1"/>
+    </row>
+    <row r="34" spans="1:25">
+      <c r="A34" s="1">
+        <v>7448</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="1"/>
+    </row>
+    <row r="35" spans="1:25">
+      <c r="A35" s="1">
+        <v>7447</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="1"/>
+    </row>
+    <row r="36" spans="1:25">
+      <c r="A36" s="1">
+        <v>7444</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" s="1"/>
+    </row>
+    <row r="37" spans="1:25">
+      <c r="A37" s="1">
+        <v>7441</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" s="1"/>
+    </row>
+    <row r="38" spans="1:25">
+      <c r="A38" s="1">
+        <v>7439</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" s="1"/>
+    </row>
+    <row r="39" spans="1:25">
+      <c r="A39" s="1">
+        <v>6676</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" s="1"/>
+    </row>
+    <row r="40" spans="1:25">
+      <c r="A40" s="1">
+        <v>6675</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C40" s="1"/>
+    </row>
+    <row r="41" spans="1:25">
+      <c r="A41" s="1">
+        <v>6673</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C41" s="1"/>
+    </row>
+    <row r="42" spans="1:25">
+      <c r="A42" s="1">
+        <v>8465</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="1"/>
+    </row>
+    <row r="43" spans="1:25">
+      <c r="A43" s="1">
+        <v>8456</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C43" s="1"/>
+    </row>
+    <row r="44" spans="1:25">
+      <c r="A44" s="1">
+        <v>7446</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C44" s="1"/>
+    </row>
+    <row r="45" spans="1:25">
+      <c r="A45" s="1">
+        <v>7445</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" s="1"/>
+    </row>
+    <row r="46" spans="1:25">
+      <c r="A46" s="1">
+        <v>7440</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C46" s="1"/>
+    </row>
+    <row r="47" spans="1:25">
+      <c r="A47" s="1">
+        <v>7443</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" s="1"/>
+    </row>
+    <row r="48" spans="1:25">
+      <c r="A48" s="1">
+        <v>8458</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" s="1"/>
+    </row>
+    <row r="49" spans="1:25">
+      <c r="A49" s="1">
+        <v>6672</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" s="1"/>
+    </row>
+    <row r="50" spans="1:25">
+      <c r="A50" s="1">
+        <v>4027</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" s="1"/>
+    </row>
+    <row r="51" spans="1:25">
+      <c r="A51" s="1">
+        <v>7902</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" s="1"/>
+    </row>
+    <row r="52" spans="1:25">
+      <c r="A52" s="1">
+        <v>7886</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" s="1"/>
+    </row>
+    <row r="53" spans="1:25">
+      <c r="A53" s="1">
+        <v>3163</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C53" s="1"/>
+    </row>
+    <row r="54" spans="1:25">
+      <c r="A54" s="1">
+        <v>3158</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" s="1"/>
+    </row>
+    <row r="55" spans="1:25">
+      <c r="A55" s="1">
+        <v>3157</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C55" s="1"/>
+    </row>
+    <row r="56" spans="1:25">
+      <c r="A56" s="1">
+        <v>1092</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" s="1"/>
+    </row>
+    <row r="57" spans="1:25">
+      <c r="A57" s="1">
+        <v>1090</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" s="1"/>
+    </row>
+    <row r="58" spans="1:25">
+      <c r="A58" s="1">
+        <v>1089</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C58" s="1"/>
+    </row>
+    <row r="59" spans="1:25">
+      <c r="A59" s="1">
+        <v>7415</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C59" s="1"/>
+    </row>
+    <row r="60" spans="1:25">
+      <c r="A60" s="1">
+        <v>1076</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C60" s="1"/>
+    </row>
+    <row r="61" spans="1:25">
+      <c r="A61" s="1">
+        <v>8450</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C61" s="1"/>
+    </row>
+    <row r="62" spans="1:25">
+      <c r="A62" s="1">
+        <v>3149</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C62" s="1"/>
+    </row>
+    <row r="63" spans="1:25">
+      <c r="A63" s="1">
+        <v>9914</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C63" s="1"/>
+    </row>
+    <row r="64" spans="1:25">
+      <c r="A64" s="1">
+        <v>9913</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" s="1"/>
+    </row>
+    <row r="65" spans="1:25">
+      <c r="A65" s="1">
+        <v>9912</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65" s="1"/>
+    </row>
+    <row r="66" spans="1:25">
+      <c r="A66" s="1">
+        <v>9911</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C66" s="1"/>
+    </row>
+    <row r="67" spans="1:25">
+      <c r="A67" s="1">
+        <v>8457</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C67" s="1"/>
+    </row>
+    <row r="68" spans="1:25">
+      <c r="A68" s="1">
+        <v>8454</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C68" s="1"/>
+    </row>
+    <row r="69" spans="1:25">
+      <c r="A69" s="1">
+        <v>8452</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69" s="1"/>
+    </row>
+    <row r="70" spans="1:25">
+      <c r="A70" s="1">
+        <v>8441</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70" s="1"/>
+    </row>
+    <row r="71" spans="1:25">
+      <c r="A71" s="1">
+        <v>8440</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" s="1"/>
+    </row>
+    <row r="72" spans="1:25">
+      <c r="A72" s="1">
+        <v>8436</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72" s="1"/>
+    </row>
+    <row r="73" spans="1:25">
+      <c r="A73" s="1">
+        <v>8435</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" s="1"/>
+    </row>
+    <row r="74" spans="1:25">
+      <c r="A74" s="1">
+        <v>8434</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74" s="1"/>
+    </row>
+    <row r="75" spans="1:25">
+      <c r="A75" s="1">
+        <v>8422</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" s="1"/>
+    </row>
+    <row r="76" spans="1:25">
+      <c r="A76" s="1">
+        <v>8415</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76" s="1"/>
+    </row>
+    <row r="77" spans="1:25">
+      <c r="A77" s="1">
+        <v>8411</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C77" s="1"/>
+    </row>
+    <row r="78" spans="1:25">
+      <c r="A78" s="1">
+        <v>8410</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C78" s="1"/>
+    </row>
+    <row r="79" spans="1:25">
+      <c r="A79" s="1">
+        <v>8407</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C79" s="1"/>
+    </row>
+    <row r="80" spans="1:25">
+      <c r="A80" s="1">
+        <v>8404</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C80" s="1"/>
+    </row>
+    <row r="81" spans="1:25">
+      <c r="A81" s="1">
+        <v>8403</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C81" s="1"/>
+    </row>
+    <row r="82" spans="1:25">
+      <c r="A82" s="1">
+        <v>8402</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C82" s="1"/>
+    </row>
+    <row r="83" spans="1:25">
+      <c r="A83" s="1">
+        <v>7436</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C83" s="1"/>
+    </row>
+    <row r="84" spans="1:25">
+      <c r="A84" s="1">
+        <v>7432</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C84" s="1"/>
+    </row>
+    <row r="85" spans="1:25">
+      <c r="A85" s="1">
+        <v>7431</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C85" s="1"/>
+    </row>
+    <row r="86" spans="1:25">
+      <c r="A86" s="1">
+        <v>7428</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C86" s="1"/>
+    </row>
+    <row r="87" spans="1:25">
+      <c r="A87" s="1">
+        <v>7427</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C87" s="1"/>
+    </row>
+    <row r="88" spans="1:25">
+      <c r="A88" s="1">
+        <v>7414</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C88" s="1"/>
+    </row>
+    <row r="89" spans="1:25">
+      <c r="A89" s="1">
+        <v>7413</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C89" s="1"/>
+    </row>
+    <row r="90" spans="1:25">
+      <c r="A90" s="1">
+        <v>7411</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C90" s="1"/>
+    </row>
+    <row r="91" spans="1:25">
+      <c r="A91" s="1">
+        <v>7410</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C91" s="1"/>
+    </row>
+    <row r="92" spans="1:25">
+      <c r="A92" s="1">
+        <v>7406</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C92" s="1"/>
+    </row>
+    <row r="93" spans="1:25">
+      <c r="A93" s="1">
+        <v>7405</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C93" s="1"/>
+    </row>
+    <row r="94" spans="1:25">
+      <c r="A94" s="1">
+        <v>7404</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C94" s="1"/>
+    </row>
+    <row r="95" spans="1:25">
+      <c r="A95" s="1">
+        <v>7402</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C95" s="1"/>
+    </row>
+    <row r="96" spans="1:25">
+      <c r="A96" s="1">
+        <v>6666</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C96" s="1"/>
+    </row>
+    <row r="97" spans="1:25">
+      <c r="A97" s="1">
+        <v>8439</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C97" s="1"/>
+    </row>
+    <row r="98" spans="1:25">
+      <c r="A98" s="1">
+        <v>8448</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C98" s="1"/>
+    </row>
+    <row r="99" spans="1:25">
+      <c r="A99" s="1">
+        <v>8443</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C99" s="1"/>
+    </row>
+    <row r="100" spans="1:25">
+      <c r="A100" s="1">
+        <v>8442</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C100" s="1"/>
+    </row>
+    <row r="101" spans="1:25">
+      <c r="A101" s="1">
+        <v>8437</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C101" s="1"/>
+    </row>
+    <row r="102" spans="1:25">
+      <c r="A102" s="1">
+        <v>8432</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C102" s="1"/>
+    </row>
+    <row r="103" spans="1:25">
+      <c r="A103" s="1">
+        <v>8430</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C103" s="1"/>
+    </row>
+    <row r="104" spans="1:25">
+      <c r="A104" s="1">
+        <v>8429</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C104" s="1"/>
+    </row>
+    <row r="105" spans="1:25">
+      <c r="A105" s="1">
+        <v>8428</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C105" s="1"/>
+    </row>
+    <row r="106" spans="1:25">
+      <c r="A106" s="1">
+        <v>8424</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C106" s="1"/>
+    </row>
+    <row r="107" spans="1:25">
+      <c r="A107" s="1">
+        <v>8401</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C107" s="1"/>
+    </row>
+    <row r="108" spans="1:25">
+      <c r="A108" s="1">
+        <v>7438</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C108" s="1"/>
+    </row>
+    <row r="109" spans="1:25">
+      <c r="A109" s="1">
+        <v>7435</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C109" s="1"/>
+    </row>
+    <row r="110" spans="1:25">
+      <c r="A110" s="1">
+        <v>7430</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C110" s="1"/>
+    </row>
+    <row r="111" spans="1:25">
+      <c r="A111" s="1">
+        <v>7426</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C111" s="1"/>
+    </row>
+    <row r="112" spans="1:25">
+      <c r="A112" s="1">
+        <v>7425</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C112" s="1"/>
+    </row>
+    <row r="113" spans="1:25">
+      <c r="A113" s="1">
+        <v>7420</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C113" s="1"/>
+    </row>
+    <row r="114" spans="1:25">
+      <c r="A114" s="1">
+        <v>7418</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C114" s="1"/>
+    </row>
+    <row r="115" spans="1:25">
+      <c r="A115" s="1">
+        <v>6670</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C115" s="1"/>
+    </row>
+    <row r="116" spans="1:25">
+      <c r="A116" s="1">
+        <v>6669</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C116" s="1"/>
+    </row>
+    <row r="117" spans="1:25">
+      <c r="A117" s="1">
+        <v>7403</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C117" s="1"/>
+    </row>
+    <row r="118" spans="1:25">
+      <c r="A118" s="1">
+        <v>7422</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C118" s="1"/>
+    </row>
+    <row r="119" spans="1:25">
+      <c r="A119" s="1">
+        <v>3517</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C119" s="1"/>
+    </row>
+    <row r="120" spans="1:25">
+      <c r="A120" s="1">
+        <v>3513</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C120" s="1"/>
+    </row>
+    <row r="121" spans="1:25">
+      <c r="A121" s="1">
+        <v>8427</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C121" s="1"/>
+    </row>
+    <row r="122" spans="1:25">
+      <c r="A122" s="1">
+        <v>3516</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C122" s="1"/>
+    </row>
+    <row r="123" spans="1:25">
+      <c r="A123" s="1">
+        <v>1071</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C123" s="1"/>
+    </row>
+    <row r="124" spans="1:25">
+      <c r="A124" s="1">
+        <v>8445</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C124" s="1"/>
+    </row>
+    <row r="125" spans="1:25">
+      <c r="A125" s="1">
+        <v>8420</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C125" s="1"/>
+    </row>
+    <row r="126" spans="1:25">
+      <c r="A126" s="1">
+        <v>8419</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C126" s="1"/>
+    </row>
+    <row r="127" spans="1:25">
+      <c r="A127" s="1">
+        <v>8416</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C127" s="1"/>
+    </row>
+    <row r="128" spans="1:25">
+      <c r="A128" s="1">
+        <v>7416</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C128" s="1"/>
+    </row>
+    <row r="129" spans="1:25">
+      <c r="A129" s="1">
+        <v>1066</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C129" s="1"/>
+    </row>
+    <row r="130" spans="1:25">
+      <c r="A130" s="1">
+        <v>8927</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C130" s="1"/>
+    </row>
+    <row r="131" spans="1:25">
+      <c r="A131" s="1">
+        <v>8922</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C131" s="1"/>
+    </row>
+    <row r="132" spans="1:25">
+      <c r="A132" s="1">
+        <v>8905</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C132" s="1"/>
+    </row>
+    <row r="133" spans="1:25">
+      <c r="A133" s="1">
+        <v>8903</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C133" s="1"/>
+    </row>
+    <row r="134" spans="1:25">
+      <c r="A134" s="1">
+        <v>8895</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C134" s="1"/>
+    </row>
+    <row r="135" spans="1:25">
+      <c r="A135" s="1">
+        <v>8891</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C135" s="1"/>
+    </row>
+    <row r="136" spans="1:25">
+      <c r="A136" s="1">
+        <v>8889</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C136" s="1"/>
+    </row>
+    <row r="137" spans="1:25">
+      <c r="A137" s="1">
+        <v>8888</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C137" s="1"/>
+    </row>
+    <row r="138" spans="1:25">
+      <c r="A138" s="1">
+        <v>8887</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C138" s="1"/>
+    </row>
+    <row r="139" spans="1:25">
+      <c r="A139" s="1">
+        <v>8879</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C139" s="1"/>
+    </row>
+    <row r="140" spans="1:25">
+      <c r="A140" s="1">
+        <v>8863</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C140" s="1"/>
+    </row>
+    <row r="141" spans="1:25">
+      <c r="A141" s="1">
+        <v>8862</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C141" s="1"/>
+    </row>
+    <row r="142" spans="1:25">
+      <c r="A142" s="1">
+        <v>8860</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C142" s="1"/>
+    </row>
+    <row r="143" spans="1:25">
+      <c r="A143" s="1">
+        <v>8853</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C143" s="1"/>
+    </row>
+    <row r="144" spans="1:25">
+      <c r="A144" s="1">
+        <v>8852</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C144" s="1"/>
+    </row>
+    <row r="145" spans="1:25">
+      <c r="A145" s="1">
+        <v>8845</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C145" s="1"/>
+    </row>
+    <row r="146" spans="1:25">
+      <c r="A146" s="1">
+        <v>8830</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C146" s="1"/>
+    </row>
+    <row r="147" spans="1:25">
+      <c r="A147" s="1">
+        <v>8815</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C147" s="1"/>
+    </row>
+    <row r="148" spans="1:25">
+      <c r="A148" s="1">
+        <v>8810</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C148" s="1"/>
+    </row>
+    <row r="149" spans="1:25">
+      <c r="A149" s="1">
+        <v>8447</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C149" s="1"/>
+    </row>
+    <row r="150" spans="1:25">
+      <c r="A150" s="1">
+        <v>8446</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C150" s="1"/>
+    </row>
+    <row r="151" spans="1:25">
+      <c r="A151" s="1">
+        <v>8431</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C151" s="1"/>
+    </row>
+    <row r="152" spans="1:25">
+      <c r="A152" s="1">
+        <v>8423</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C152" s="1"/>
+    </row>
+    <row r="153" spans="1:25">
+      <c r="A153" s="1">
+        <v>8400</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C153" s="1"/>
+    </row>
+    <row r="154" spans="1:25">
+      <c r="A154" s="1">
+        <v>8135</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C154" s="1"/>
+    </row>
+    <row r="155" spans="1:25">
+      <c r="A155" s="1">
+        <v>8126</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C155" s="1"/>
+    </row>
+    <row r="156" spans="1:25">
+      <c r="A156" s="1">
+        <v>8125</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C156" s="1"/>
+    </row>
+    <row r="157" spans="1:25">
+      <c r="A157" s="1">
+        <v>8124</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C157" s="1"/>
+    </row>
+    <row r="158" spans="1:25">
+      <c r="A158" s="1">
+        <v>8121</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C158" s="1"/>
+    </row>
+    <row r="159" spans="1:25">
+      <c r="A159" s="1">
+        <v>8120</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C159" s="1"/>
+    </row>
+    <row r="160" spans="1:25">
+      <c r="A160" s="1">
+        <v>8119</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C160" s="1"/>
+    </row>
+    <row r="161" spans="1:25">
+      <c r="A161" s="1">
+        <v>8118</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C161" s="1"/>
+    </row>
+    <row r="162" spans="1:25">
+      <c r="A162" s="1">
+        <v>8117</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C162" s="1"/>
+    </row>
+    <row r="163" spans="1:25">
+      <c r="A163" s="1">
+        <v>8115</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C163" s="1"/>
+    </row>
+    <row r="164" spans="1:25">
+      <c r="A164" s="1">
+        <v>8113</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C164" s="1"/>
+    </row>
+    <row r="165" spans="1:25">
+      <c r="A165" s="1">
+        <v>8112</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C165" s="1"/>
+    </row>
+    <row r="166" spans="1:25">
+      <c r="A166" s="1">
+        <v>7992</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C166" s="1"/>
+    </row>
+    <row r="167" spans="1:25">
+      <c r="A167" s="1">
+        <v>7982</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C167" s="1"/>
+    </row>
+    <row r="168" spans="1:25">
+      <c r="A168" s="1">
+        <v>7980</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C168" s="1"/>
+    </row>
+    <row r="169" spans="1:25">
+      <c r="A169" s="1">
+        <v>7973</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C169" s="1"/>
+    </row>
+    <row r="170" spans="1:25">
+      <c r="A170" s="1">
+        <v>7971</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C170" s="1"/>
+    </row>
+    <row r="171" spans="1:25">
+      <c r="A171" s="1">
+        <v>7970</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C171" s="1"/>
+    </row>
+    <row r="172" spans="1:25">
+      <c r="A172" s="1">
+        <v>7968</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C172" s="1"/>
+    </row>
+    <row r="173" spans="1:25">
+      <c r="A173" s="1">
+        <v>7960</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C173" s="1"/>
+    </row>
+    <row r="174" spans="1:25">
+      <c r="A174" s="1">
+        <v>7946</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C174" s="1"/>
+    </row>
+    <row r="175" spans="1:25">
+      <c r="A175" s="1">
+        <v>7938</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C175" s="1"/>
+    </row>
+    <row r="176" spans="1:25">
+      <c r="A176" s="1">
+        <v>7935</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C176" s="1"/>
+    </row>
+    <row r="177" spans="1:25">
+      <c r="A177" s="1">
+        <v>7932</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C177" s="1"/>
+    </row>
+    <row r="178" spans="1:25">
+      <c r="A178" s="1">
+        <v>7931</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C178" s="1"/>
+    </row>
+    <row r="179" spans="1:25">
+      <c r="A179" s="1">
+        <v>7930</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C179" s="1"/>
+    </row>
+    <row r="180" spans="1:25">
+      <c r="A180" s="1">
+        <v>7928</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C180" s="1"/>
+    </row>
+    <row r="181" spans="1:25">
+      <c r="A181" s="1">
+        <v>7920</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C181" s="1"/>
+    </row>
+    <row r="182" spans="1:25">
+      <c r="A182" s="1">
+        <v>7904</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C182" s="1"/>
+    </row>
+    <row r="183" spans="1:25">
+      <c r="A183" s="1">
+        <v>7897</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C183" s="1"/>
+    </row>
+    <row r="184" spans="1:25">
+      <c r="A184" s="1">
+        <v>7884</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C184" s="1"/>
+    </row>
+    <row r="185" spans="1:25">
+      <c r="A185" s="1">
+        <v>7879</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C185" s="1"/>
+    </row>
+    <row r="186" spans="1:25">
+      <c r="A186" s="1">
+        <v>7875</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C186" s="1"/>
+    </row>
+    <row r="187" spans="1:25">
+      <c r="A187" s="1">
+        <v>7866</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C187" s="1"/>
+    </row>
+    <row r="188" spans="1:25">
+      <c r="A188" s="1">
+        <v>7860</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C188" s="1"/>
+    </row>
+    <row r="189" spans="1:25">
+      <c r="A189" s="1">
+        <v>7805</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C189" s="1"/>
+    </row>
+    <row r="190" spans="1:25">
+      <c r="A190" s="1">
+        <v>7796</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C190" s="1"/>
+    </row>
+    <row r="191" spans="1:25">
+      <c r="A191" s="1">
+        <v>7749</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C191" s="1"/>
+    </row>
+    <row r="192" spans="1:25">
+      <c r="A192" s="1">
+        <v>7739</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C192" s="1"/>
+    </row>
+    <row r="193" spans="1:25">
+      <c r="A193" s="1">
+        <v>7434</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C193" s="1"/>
+    </row>
+    <row r="194" spans="1:25">
+      <c r="A194" s="1">
+        <v>7429</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C194" s="1"/>
+    </row>
+    <row r="195" spans="1:25">
+      <c r="A195" s="1">
+        <v>7419</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C195" s="1"/>
+    </row>
+    <row r="196" spans="1:25">
+      <c r="A196" s="1">
+        <v>7400</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C196" s="1"/>
+    </row>
+    <row r="197" spans="1:25">
+      <c r="A197" s="1">
+        <v>7260</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C197" s="1"/>
+    </row>
+    <row r="198" spans="1:25">
+      <c r="A198" s="1">
+        <v>7259</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C198" s="1"/>
+    </row>
+    <row r="199" spans="1:25">
+      <c r="A199" s="1">
+        <v>7258</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C199" s="1"/>
+    </row>
+    <row r="200" spans="1:25">
+      <c r="A200" s="1">
+        <v>7257</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C200" s="1"/>
+    </row>
+    <row r="201" spans="1:25">
+      <c r="A201" s="1">
+        <v>7255</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C201" s="1"/>
+    </row>
+    <row r="202" spans="1:25">
+      <c r="A202" s="1">
+        <v>7254</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C202" s="1"/>
+    </row>
+    <row r="203" spans="1:25">
+      <c r="A203" s="1">
+        <v>7252</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C203" s="1"/>
+    </row>
+    <row r="204" spans="1:25">
+      <c r="A204" s="1">
+        <v>7251</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C204" s="1"/>
+    </row>
+    <row r="205" spans="1:25">
+      <c r="A205" s="1">
+        <v>7250</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C205" s="1"/>
+    </row>
+    <row r="206" spans="1:25">
+      <c r="A206" s="1">
+        <v>7247</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C206" s="1"/>
+    </row>
+    <row r="207" spans="1:25">
+      <c r="A207" s="1">
+        <v>6645</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C207" s="1"/>
+    </row>
+    <row r="208" spans="1:25">
+      <c r="A208" s="1">
+        <v>6639</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C208" s="1"/>
+    </row>
+    <row r="209" spans="1:25">
+      <c r="A209" s="1">
+        <v>6617</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C209" s="1"/>
+    </row>
+    <row r="210" spans="1:25">
+      <c r="A210" s="1">
+        <v>6163</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C210" s="1"/>
+    </row>
+    <row r="211" spans="1:25">
+      <c r="A211" s="1">
+        <v>6150</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C211" s="1"/>
+    </row>
+    <row r="212" spans="1:25">
+      <c r="A212" s="1">
+        <v>6149</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C212" s="1"/>
+    </row>
+    <row r="213" spans="1:25">
+      <c r="A213" s="1">
+        <v>6146</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C213" s="1"/>
+    </row>
+    <row r="214" spans="1:25">
+      <c r="A214" s="1">
+        <v>6145</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C214" s="1"/>
+    </row>
+    <row r="215" spans="1:25">
+      <c r="A215" s="1">
+        <v>6144</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C215" s="1"/>
+    </row>
+    <row r="216" spans="1:25">
+      <c r="A216" s="1">
+        <v>5506</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C216" s="1"/>
+    </row>
+    <row r="217" spans="1:25">
+      <c r="A217" s="1">
+        <v>5504</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C217" s="1"/>
+    </row>
+    <row r="218" spans="1:25">
+      <c r="A218" s="1">
+        <v>5154</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C218" s="1"/>
+    </row>
+    <row r="219" spans="1:25">
+      <c r="A219" s="1">
+        <v>5151</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C219" s="1"/>
+    </row>
+    <row r="220" spans="1:25">
+      <c r="A220" s="1">
+        <v>5149</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C220" s="1"/>
+    </row>
+    <row r="221" spans="1:25">
+      <c r="A221" s="1">
+        <v>5148</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C221" s="1"/>
+    </row>
+    <row r="222" spans="1:25">
+      <c r="A222" s="1">
+        <v>5146</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C222" s="1"/>
+    </row>
+    <row r="223" spans="1:25">
+      <c r="A223" s="1">
+        <v>5145</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C223" s="1"/>
+    </row>
+    <row r="224" spans="1:25">
+      <c r="A224" s="1">
+        <v>5144</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C224" s="1"/>
+    </row>
+    <row r="225" spans="1:25">
+      <c r="A225" s="1">
+        <v>5143</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C225" s="1"/>
+    </row>
+    <row r="226" spans="1:25">
+      <c r="A226" s="1">
+        <v>5142</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C226" s="1"/>
+    </row>
+    <row r="227" spans="1:25">
+      <c r="A227" s="1">
+        <v>5141</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C227" s="1"/>
+    </row>
+    <row r="228" spans="1:25">
+      <c r="A228" s="1">
+        <v>5140</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C228" s="1"/>
+    </row>
+    <row r="229" spans="1:25">
+      <c r="A229" s="1">
+        <v>5138</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C229" s="1"/>
+    </row>
+    <row r="230" spans="1:25">
+      <c r="A230" s="1">
+        <v>5136</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C230" s="1"/>
+    </row>
+    <row r="231" spans="1:25">
+      <c r="A231" s="1">
+        <v>5135</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C231" s="1"/>
+    </row>
+    <row r="232" spans="1:25">
+      <c r="A232" s="1">
+        <v>5134</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C232" s="1"/>
+    </row>
+    <row r="233" spans="1:25">
+      <c r="A233" s="1">
+        <v>5133</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C233" s="1"/>
+    </row>
+    <row r="234" spans="1:25">
+      <c r="A234" s="1">
+        <v>5129</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C234" s="1"/>
+    </row>
+    <row r="235" spans="1:25">
+      <c r="A235" s="1">
+        <v>5128</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C235" s="1"/>
+    </row>
+    <row r="236" spans="1:25">
+      <c r="A236" s="1">
+        <v>5126</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C236" s="1"/>
+    </row>
+    <row r="237" spans="1:25">
+      <c r="A237" s="1">
+        <v>5123</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C237" s="1"/>
+    </row>
+    <row r="238" spans="1:25">
+      <c r="A238" s="1">
+        <v>4109</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C238" s="1"/>
+    </row>
+    <row r="239" spans="1:25">
+      <c r="A239" s="1">
+        <v>4108</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C239" s="1"/>
+    </row>
+    <row r="240" spans="1:25">
+      <c r="A240" s="1">
+        <v>4106</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C240" s="1"/>
+    </row>
+    <row r="241" spans="1:25">
+      <c r="A241" s="1">
+        <v>4104</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C241" s="1"/>
+    </row>
+    <row r="242" spans="1:25">
+      <c r="A242" s="1">
+        <v>4103</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C242" s="1"/>
+    </row>
+    <row r="243" spans="1:25">
+      <c r="A243" s="1">
+        <v>4102</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C243" s="1"/>
+    </row>
+    <row r="244" spans="1:25">
+      <c r="A244" s="1">
+        <v>4101</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C244" s="1"/>
+    </row>
+    <row r="245" spans="1:25">
+      <c r="A245" s="1">
+        <v>4050</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C245" s="1"/>
+    </row>
+    <row r="246" spans="1:25">
+      <c r="A246" s="1">
+        <v>4049</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C246" s="1"/>
+    </row>
+    <row r="247" spans="1:25">
+      <c r="A247" s="1">
+        <v>3135</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C247" s="1"/>
+    </row>
+    <row r="248" spans="1:25">
+      <c r="A248" s="1">
+        <v>3133</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C248" s="1"/>
+    </row>
+    <row r="249" spans="1:25">
+      <c r="A249" s="1">
+        <v>3132</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C249" s="1"/>
+    </row>
+    <row r="250" spans="1:25">
+      <c r="A250" s="1">
+        <v>3123</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C250" s="1"/>
+    </row>
+    <row r="251" spans="1:25">
+      <c r="A251" s="1">
+        <v>3122</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C251" s="1"/>
+    </row>
+    <row r="252" spans="1:25">
+      <c r="A252" s="1">
+        <v>3121</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C252" s="1"/>
+    </row>
+    <row r="253" spans="1:25">
+      <c r="A253" s="1">
+        <v>3091</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C253" s="1"/>
+    </row>
+    <row r="254" spans="1:25">
+      <c r="A254" s="1">
+        <v>3090</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C254" s="1"/>
+    </row>
+    <row r="255" spans="1:25">
+      <c r="A255" s="1">
+        <v>3085</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C255" s="1"/>
+    </row>
+    <row r="256" spans="1:25">
+      <c r="A256" s="1">
+        <v>3030</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C256" s="1"/>
+    </row>
+    <row r="257" spans="1:25">
+      <c r="A257" s="1">
         <v>3014</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="B257" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C257" s="1"/>
+    </row>
+    <row r="258" spans="1:25">
+      <c r="A258" s="1">
+        <v>3001</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C258" s="1"/>
+    </row>
+    <row r="259" spans="1:25">
+      <c r="A259" s="1">
+        <v>1059</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C259" s="1"/>
+    </row>
+    <row r="260" spans="1:25">
+      <c r="A260" s="1">
+        <v>1022</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C260" s="1"/>
+    </row>
+    <row r="261" spans="1:25">
+      <c r="A261" s="1">
+        <v>1013</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C261" s="1"/>
+    </row>
+    <row r="262" spans="1:25">
+      <c r="A262" s="1">
+        <v>1009</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C262" s="1"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
